--- a/example.xlsx
+++ b/example.xlsx
@@ -10,12 +10,11 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Строка 1</t>
   </si>
@@ -25,6 +24,18 @@
   <si>
     <t>Строка 3</t>
   </si>
+  <si>
+    <t>Наименование</t>
+  </si>
+  <si>
+    <t>Дата</t>
+  </si>
+  <si>
+    <t>bool</t>
+  </si>
+  <si>
+    <t>№</t>
+  </si>
 </sst>
 </file>
 
@@ -145,7 +156,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -194,8 +205,14 @@
         <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -215,6 +232,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF808080"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -240,9 +272,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="19">
     <cellStyle name="Accent" xfId="1"/>
@@ -562,53 +599,70 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.44140625" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" customWidth="1"/>
     <col min="3" max="3" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1">
-        <v>44197</v>
-      </c>
-      <c r="D1" t="b">
-        <v>1</v>
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="C2" s="1">
-        <v>44228</v>
-      </c>
-      <c r="D2" t="b">
+      <c r="B2" s="3" t="s">
         <v>0</v>
+      </c>
+      <c r="C2" s="4">
+        <v>44197</v>
+      </c>
+      <c r="D2" s="3" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4">
+        <v>44228</v>
+      </c>
+      <c r="D3" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
